--- a/config_9.28/game_activity_config.xlsx
+++ b/config_9.28/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
   <si>
     <t>line|行号</t>
   </si>
@@ -1067,6 +1067,10 @@
   </si>
   <si>
     <t>"act_gqfl_cjj","panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_yjshl","panel"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1730,10 +1734,10 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5691,7 +5695,7 @@
         <v>190</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="N86" s="6">
         <v>1</v>
@@ -6256,30 +6260,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -6287,45 +6274,62 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>